--- a/BalanceSheet/CDW_bal.xlsx
+++ b/BalanceSheet/CDW_bal.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-37200000.0</v>
+        <v>760000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>55100000.0</v>
+        <v>648000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-22900000.0</v>
+        <v>695000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-66400000.0</v>
+        <v>672000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1900000.0</v>
+        <v>611000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>603600000.0</v>
@@ -1673,19 +1673,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>146900000.0</v>
+        <v>2088000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>108900000.0</v>
+        <v>1922000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-159500000.0</v>
+        <v>1809000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>157400000.0</v>
+        <v>1967000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-69900000.0</v>
+        <v>1835000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2311700000.0</v>
@@ -3135,19 +3135,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-17700000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-9800000.0</v>
+        <v>63000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>4700000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2600000.0</v>
+        <v>63000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-54400000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>111300000.0</v>
